--- a/planilhas-comparacoes/relatoriosdwg_rev3_vs_rev4.xlsx
+++ b/planilhas-comparacoes/relatoriosdwg_rev3_vs_rev4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t xml:space="preserve">LISTA </t>
   </si>
@@ -188,22 +188,25 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>10005664</t>
-  </si>
-  <si>
-    <t>joelho para tubo</t>
-  </si>
-  <si>
-    <t>ALTERADO</t>
-  </si>
-  <si>
     <t>10007207</t>
   </si>
   <si>
     <t>parafuso estojo</t>
   </si>
   <si>
+    <t>ALTERADO</t>
+  </si>
+  <si>
     <t>10007435</t>
+  </si>
+  <si>
+    <t>10027489</t>
+  </si>
+  <si>
+    <t>tê para tubo</t>
+  </si>
+  <si>
+    <t>ADICIONADO</t>
   </si>
   <si>
     <t>10217343</t>
@@ -212,19 +215,25 @@
     <t>Flange pescoo</t>
   </si>
   <si>
-    <t>10390585</t>
+    <t>10334519</t>
   </si>
   <si>
-    <t>tubo condução de aço carbono</t>
+    <t>válvula gaveta</t>
   </si>
   <si>
-    <t>ADICIONADO</t>
+    <t>10515625</t>
+  </si>
+  <si>
+    <t>junta circular para flange</t>
   </si>
   <si>
     <t>11389613</t>
   </si>
   <si>
-    <t>junta circular para flange</t>
+    <t>11399557</t>
+  </si>
+  <si>
+    <t>tubo condução de aço carbono</t>
   </si>
   <si>
     <t xml:space="preserve"> NOTAS:</t>
@@ -48342,7 +48351,7 @@
       <c r="AT7" s="230"/>
       <c r="AU7" s="231"/>
       <c r="AV7" s="232">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW7" s="232"/>
       <c r="AX7" s="232"/>
@@ -48350,7 +48359,7 @@
       <c r="AZ7" s="232"/>
       <c r="BA7" s="232"/>
       <c r="BB7" s="233">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BC7" s="233"/>
       <c r="BD7" s="233"/>
@@ -48390,7 +48399,7 @@
       <c r="J8" s="227"/>
       <c r="K8" s="228"/>
       <c r="L8" s="229" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M8" s="230"/>
       <c r="N8" s="230"/>
@@ -48428,7 +48437,7 @@
       <c r="AT8" s="230"/>
       <c r="AU8" s="231"/>
       <c r="AV8" s="238">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="239"/>
       <c r="AX8" s="239"/>
@@ -48436,7 +48445,7 @@
       <c r="AZ8" s="239"/>
       <c r="BA8" s="240"/>
       <c r="BB8" s="226">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BC8" s="227"/>
       <c r="BD8" s="227"/>
@@ -48444,7 +48453,7 @@
       <c r="BF8" s="227"/>
       <c r="BG8" s="228"/>
       <c r="BH8" s="226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI8" s="227"/>
       <c r="BJ8" s="227"/>
@@ -48467,7 +48476,7 @@
       <c r="C9" s="225"/>
       <c r="D9" s="225"/>
       <c r="E9" s="226" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="227"/>
       <c r="G9" s="227"/>
@@ -48476,7 +48485,7 @@
       <c r="J9" s="227"/>
       <c r="K9" s="228"/>
       <c r="L9" s="229" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="230"/>
       <c r="N9" s="230"/>
@@ -48514,7 +48523,7 @@
       <c r="AT9" s="230"/>
       <c r="AU9" s="231"/>
       <c r="AV9" s="238">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="239"/>
       <c r="AX9" s="239"/>
@@ -48522,7 +48531,7 @@
       <c r="AZ9" s="239"/>
       <c r="BA9" s="240"/>
       <c r="BB9" s="226">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="227"/>
       <c r="BD9" s="227"/>
@@ -48530,14 +48539,14 @@
       <c r="BF9" s="227"/>
       <c r="BG9" s="228"/>
       <c r="BH9" s="226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI9" s="227"/>
       <c r="BJ9" s="227"/>
       <c r="BK9" s="227"/>
       <c r="BL9" s="228"/>
       <c r="BM9" s="226" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BN9" s="227"/>
       <c r="BO9" s="227"/>
@@ -48553,7 +48562,7 @@
       <c r="C10" s="225"/>
       <c r="D10" s="225"/>
       <c r="E10" s="226" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="227"/>
       <c r="G10" s="227"/>
@@ -48562,7 +48571,7 @@
       <c r="J10" s="227"/>
       <c r="K10" s="228"/>
       <c r="L10" s="229" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="230"/>
       <c r="N10" s="230"/>
@@ -48639,7 +48648,7 @@
       <c r="C11" s="225"/>
       <c r="D11" s="225"/>
       <c r="E11" s="226" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="227"/>
       <c r="G11" s="227"/>
@@ -48648,7 +48657,7 @@
       <c r="J11" s="227"/>
       <c r="K11" s="228"/>
       <c r="L11" s="229" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="230"/>
       <c r="N11" s="230"/>
@@ -48694,7 +48703,7 @@
       <c r="AZ11" s="239"/>
       <c r="BA11" s="240"/>
       <c r="BB11" s="226">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BC11" s="227"/>
       <c r="BD11" s="227"/>
@@ -48702,14 +48711,14 @@
       <c r="BF11" s="227"/>
       <c r="BG11" s="228"/>
       <c r="BH11" s="226">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BI11" s="227"/>
       <c r="BJ11" s="227"/>
       <c r="BK11" s="227"/>
       <c r="BL11" s="228"/>
       <c r="BM11" s="226" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BN11" s="227"/>
       <c r="BO11" s="227"/>
@@ -48772,7 +48781,7 @@
       <c r="AT12" s="230"/>
       <c r="AU12" s="231"/>
       <c r="AV12" s="238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="239"/>
       <c r="AX12" s="239"/>
@@ -48780,7 +48789,7 @@
       <c r="AZ12" s="239"/>
       <c r="BA12" s="240"/>
       <c r="BB12" s="226">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC12" s="227"/>
       <c r="BD12" s="227"/>
@@ -48788,7 +48797,7 @@
       <c r="BF12" s="227"/>
       <c r="BG12" s="228"/>
       <c r="BH12" s="226">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="BI12" s="227"/>
       <c r="BJ12" s="227"/>
@@ -48804,18 +48813,24 @@
       <c r="BR12" s="241"/>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
+      <c r="A13" s="224">
+        <v>7</v>
+      </c>
       <c r="B13" s="225"/>
       <c r="C13" s="225"/>
       <c r="D13" s="225"/>
-      <c r="E13" s="242"/>
+      <c r="E13" s="242" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="243"/>
       <c r="G13" s="243"/>
       <c r="H13" s="243"/>
       <c r="I13" s="243"/>
       <c r="J13" s="243"/>
       <c r="K13" s="244"/>
-      <c r="L13" s="229"/>
+      <c r="L13" s="229" t="s">
+        <v>67</v>
+      </c>
       <c r="M13" s="230"/>
       <c r="N13" s="230"/>
       <c r="O13" s="230"/>
@@ -48851,24 +48866,32 @@
       <c r="AS13" s="230"/>
       <c r="AT13" s="230"/>
       <c r="AU13" s="231"/>
-      <c r="AV13" s="238"/>
+      <c r="AV13" s="238">
+        <v>4</v>
+      </c>
       <c r="AW13" s="239"/>
       <c r="AX13" s="239"/>
       <c r="AY13" s="239"/>
       <c r="AZ13" s="239"/>
       <c r="BA13" s="240"/>
-      <c r="BB13" s="226"/>
+      <c r="BB13" s="226">
+        <v>0</v>
+      </c>
       <c r="BC13" s="227"/>
       <c r="BD13" s="227"/>
       <c r="BE13" s="227"/>
       <c r="BF13" s="227"/>
       <c r="BG13" s="228"/>
-      <c r="BH13" s="226"/>
+      <c r="BH13" s="226">
+        <v>-4</v>
+      </c>
       <c r="BI13" s="227"/>
       <c r="BJ13" s="227"/>
       <c r="BK13" s="227"/>
       <c r="BL13" s="228"/>
-      <c r="BM13" s="226"/>
+      <c r="BM13" s="226" t="s">
+        <v>57</v>
+      </c>
       <c r="BN13" s="227"/>
       <c r="BO13" s="227"/>
       <c r="BP13" s="227"/>
@@ -48876,18 +48899,24 @@
       <c r="BR13" s="241"/>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
+      <c r="A14" s="224">
+        <v>8</v>
+      </c>
       <c r="B14" s="225"/>
       <c r="C14" s="225"/>
       <c r="D14" s="225"/>
-      <c r="E14" s="242"/>
+      <c r="E14" s="242" t="s">
+        <v>69</v>
+      </c>
       <c r="F14" s="243"/>
       <c r="G14" s="243"/>
       <c r="H14" s="243"/>
       <c r="I14" s="243"/>
       <c r="J14" s="243"/>
       <c r="K14" s="244"/>
-      <c r="L14" s="229"/>
+      <c r="L14" s="229" t="s">
+        <v>70</v>
+      </c>
       <c r="M14" s="230"/>
       <c r="N14" s="230"/>
       <c r="O14" s="230"/>
@@ -48923,24 +48952,32 @@
       <c r="AS14" s="230"/>
       <c r="AT14" s="230"/>
       <c r="AU14" s="231"/>
-      <c r="AV14" s="238"/>
+      <c r="AV14" s="238">
+        <v>0</v>
+      </c>
       <c r="AW14" s="239"/>
       <c r="AX14" s="239"/>
       <c r="AY14" s="239"/>
       <c r="AZ14" s="239"/>
       <c r="BA14" s="240"/>
-      <c r="BB14" s="226"/>
+      <c r="BB14" s="226">
+        <v>0.6</v>
+      </c>
       <c r="BC14" s="227"/>
       <c r="BD14" s="227"/>
       <c r="BE14" s="227"/>
       <c r="BF14" s="227"/>
       <c r="BG14" s="228"/>
-      <c r="BH14" s="226"/>
+      <c r="BH14" s="226">
+        <v>0.6</v>
+      </c>
       <c r="BI14" s="227"/>
       <c r="BJ14" s="227"/>
       <c r="BK14" s="227"/>
       <c r="BL14" s="228"/>
-      <c r="BM14" s="226"/>
+      <c r="BM14" s="226" t="s">
+        <v>61</v>
+      </c>
       <c r="BN14" s="227"/>
       <c r="BO14" s="227"/>
       <c r="BP14" s="227"/>
@@ -50821,7 +50858,7 @@
     </row>
     <row r="41" ht="19.95" customHeight="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A41" s="257" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41" s="258"/>
       <c r="C41" s="258"/>
